--- a/biology/Zoologie/Cacyreus/Cacyreus.xlsx
+++ b/biology/Zoologie/Cacyreus/Cacyreus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cacyreus  est un genre principalement afrotropical de lépidoptères (papillons) de la famille des Lycaenidae et de la sous-famille des Polyommatinae.
 </t>
@@ -511,10 +523,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre a d'abord été décrit en 1819 par l'entomologiste allemand Jakob Hübner sous le nom d'Hyreus[1],  l'espèce type étant Papilio lingeus Stoll, [1782].
-Le nom Hyreus s'avérant préoccupé par Hyreus Stephens, 1816, le zoologiste britannique Arthur Gardiner Butler a introduit en 1898 un nomen novum : Cacyreus[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a d'abord été décrit en 1819 par l'entomologiste allemand Jakob Hübner sous le nom d'Hyreus,  l'espèce type étant Papilio lingeus Stoll, .
+Le nom Hyreus s'avérant préoccupé par Hyreus Stephens, 1816, le zoologiste britannique Arthur Gardiner Butler a introduit en 1898 un nomen novum : Cacyreus,.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Distribution géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces du genre Cacyreus sont présentes en Afrique, dans les îles de l'Ouest de l'océan Indien et en Arabie, et Cacyreus marshalli est aussi invasive en Europe.
 </t>
@@ -574,15 +590,17 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre comporte neuf espèces[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre comporte neuf espèces :
 Cacyreus audeoudi Stempffer, 1936 — en Guinée, en Ouganda, au Kenya et en Tanzanie.
 Cacyreus darius (Mabille, 1877) — à Madagascar, aux Comores et aux Mascareignes.
 Cacyreus dicksoni Pennington, 1962 — en Afrique du Sud.
 Cacyreus ethiopicus Tite, 1961 — dans le Nord de l'Éthiopie.
-Cacyreus lingeus (Stoll, [1782]) — en Afrique subsaharienne.
-Cacyreus marshalli Butler, [1898] — le Brun des pélargoniums — originaire d'Afrique australe, mais aussi invasif dans le Sud de l'Europe et au Maghreb.
+Cacyreus lingeus (Stoll, ) — en Afrique subsaharienne.
+Cacyreus marshalli Butler,  — le Brun des pélargoniums — originaire d'Afrique australe, mais aussi invasif dans le Sud de l'Europe et au Maghreb.
 Cacyreus niehburhi Larsen, 1982 — au Yémen.
 Cacyreus tespis (Herbst, 1804) — en Afrique australe, centrale et de l'Est.
 Cacyreus virilis Stempffer, 1936 — en Afrique australe et de l'Est et dans le Sud-Ouest de l'Arabie.
